--- a/biology/Médecine/Tabes_dorsalis/Tabes_dorsalis.xlsx
+++ b/biology/Médecine/Tabes_dorsalis/Tabes_dorsalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 On désigne par le terme latin : Tabes dorsalis une dégénérescence des cordons postérieurs (ou colonnes dorsales) de la moelle spinale observée dans la neurosyphilis. Le mot latin tabes signifie « liquéfaction, dissolution, décomposition, atrophie. »
@@ -512,10 +524,12 @@
           <t>Apports historiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Fournier a été le premier à identifier l'origine syphilitique du tabes (1876).
-Henri Grenier de Cardenal s'est intéressé au lien entre le tabes et la grossesse[1].
+Henri Grenier de Cardenal s'est intéressé au lien entre le tabes et la grossesse.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Manifestations cliniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes et signes cardinaux du tabes sont :
 des douleurs extrêmes des membres, de caractère classiquement fulgurant ;
-une ataxie locomotrice, décrite par Duchenne en 1858[2] ;
+une ataxie locomotrice, décrite par Duchenne en 1858 ;
 une aréflexie ostéotendineuse des membres inférieurs ou généralisée (signe d'Erb-Westphal).
 Cette sémiologie caractérise le syndrome radiculo-cordonal postérieur. Elle se complète souvent de manifestations neurotrophiques et articulaires (arthropathies tabétiques).
 </t>
@@ -579,9 +595,11 @@
           <t>Cas célèbres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette complication neurologique de la syphilis a frappé notamment des écrivains comme Alphonse Daudet[3],[4], E. T. A. Hoffmann, ou encore le bibliographe et érudit Adolphe van Bever.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette complication neurologique de la syphilis a frappé notamment des écrivains comme Alphonse Daudet E. T. A. Hoffmann, ou encore le bibliographe et érudit Adolphe van Bever.
 </t>
         </is>
       </c>
